--- a/training_logs/NSC_NSCB_Weak_Treatment.xlsx
+++ b/training_logs/NSC_NSCB_Weak_Treatment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\samba.scp.astrazeneca.net\img\GAN_CP\PAPER_2\BBBC021\Dino_weak_treatment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\samba.scp.astrazeneca.net\img\GAN_CP\PAPER_2\BBBC021\training_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EC0AA7-D279-4E1C-ADE4-2BC4CF6F04CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368F7B02-65CB-4461-BDFA-B224FEB73A7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24195" yWindow="2685" windowWidth="15630" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,12 +535,12 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="16"/>
       <c r="K1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L1" s="11"/>
       <c r="M1" s="13"/>
